--- a/PopulationDensity-20171209125642.xlsx
+++ b/PopulationDensity-20171209125642.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghfmhf/git/data-question-3-xtreme-united/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId3"/>
-    <sheet name="Notes" sheetId="3" r:id="rId4"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="322">
   <si>
     <t>Please note the following:</t>
   </si>
@@ -895,7 +910,7 @@
     <t>Less developed regions comprise all regions of Africa, Asia (except Japan), Latin America and the Caribbean plus Melanesia, Micronesia and Polynesia.</t>
   </si>
   <si>
-    <t xml:space="preserve">The group of least developed countries, as defined by the United Nations General Assembly in its resolutions (59/209, 59/210, 60/33, 62/97, 64/L.55, 67/L.43, 64/295) included 48 countries in January 2014:  34 in Africa, 9 in Asia, 4 in Oceania and one in Latin America and the Caribbean.</t>
+    <t>The group of least developed countries, as defined by the United Nations General Assembly in its resolutions (59/209, 59/210, 60/33, 62/97, 64/L.55, 67/L.43, 64/295) included 48 countries in January 2014:  34 in Africa, 9 in Asia, 4 in Oceania and one in Latin America and the Caribbean.</t>
   </si>
   <si>
     <t>Other less developed countries comprise the less developed regions excluding the least developed countries.</t>
@@ -985,11 +1000,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1009,7 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B92E5" tint="0"/>
+        <fgColor rgb="FF5B92E5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1023,111 +1038,385 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="150.762834821429" customWidth="1"/>
+    <col min="1" max="1" width="150.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P275"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="76.7" customWidth="1"/>
-    <col min="3" max="3" width="7.8" customWidth="1"/>
-    <col min="4" max="4" width="23.4" customWidth="1"/>
-    <col min="5" max="5" width="23.4" customWidth="1"/>
-    <col min="6" max="6" width="23.4" customWidth="1"/>
-    <col min="7" max="7" width="23.4" customWidth="1"/>
-    <col min="8" max="8" width="22.1" customWidth="1"/>
-    <col min="9" max="9" width="22.1" customWidth="1"/>
-    <col min="10" max="10" width="22.1" customWidth="1"/>
-    <col min="11" max="11" width="22.1" customWidth="1"/>
-    <col min="12" max="12" width="22.1" customWidth="1"/>
-    <col min="13" max="13" width="22.1" customWidth="1"/>
-    <col min="14" max="14" width="22.1" customWidth="1"/>
-    <col min="15" max="15" width="22.1" customWidth="1"/>
-    <col min="16" max="16" width="22.1" customWidth="1"/>
+    <col min="2" max="2" width="76.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="16" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1466,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>900</v>
       </c>
@@ -1206,7 +1495,7 @@
         <v>31.4</v>
       </c>
       <c r="J3" s="7">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="K3" s="7">
         <v>37.5</v>
@@ -1227,7 +1516,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>901</v>
       </c>
@@ -1238,10 +1527,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E4" s="7">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F4" s="7">
         <v>18.7</v>
@@ -1277,7 +1566,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>902</v>
       </c>
@@ -1300,7 +1589,7 @@
         <v>29.3</v>
       </c>
       <c r="H5" s="7">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="I5" s="7">
         <v>37.4</v>
@@ -1327,7 +1616,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>941</v>
       </c>
@@ -1338,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E6" s="7">
         <v>10.7</v>
@@ -1377,7 +1666,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>934</v>
       </c>
@@ -1400,7 +1689,7 @@
         <v>34.5</v>
       </c>
       <c r="H7" s="7">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="I7" s="7">
         <v>44.1</v>
@@ -1415,7 +1704,7 @@
         <v>60.4</v>
       </c>
       <c r="M7" s="7">
-        <v>65.6</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="N7" s="7">
         <v>70.5</v>
@@ -1424,10 +1713,10 @@
         <v>75.2</v>
       </c>
       <c r="P7" s="7">
-        <v>80.1</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>948</v>
       </c>
@@ -1441,7 +1730,7 @@
         <v>16.2</v>
       </c>
       <c r="E8" s="7">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F8" s="7">
         <v>20.2</v>
@@ -1459,7 +1748,7 @@
         <v>32.9</v>
       </c>
       <c r="K8" s="7">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="L8" s="7">
         <v>41.7</v>
@@ -1477,7 +1766,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1503</v>
       </c>
@@ -1491,7 +1780,7 @@
         <v>19.2</v>
       </c>
       <c r="E9" s="7">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F9" s="7">
         <v>21.7</v>
@@ -1524,10 +1813,10 @@
         <v>31.6</v>
       </c>
       <c r="P9" s="7">
-        <v>32.8</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1517</v>
       </c>
@@ -1553,7 +1842,7 @@
         <v>32.9</v>
       </c>
       <c r="I10" s="7">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="J10" s="7">
         <v>40.6</v>
@@ -1577,7 +1866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1501</v>
       </c>
@@ -1609,7 +1898,7 @@
         <v>67.7</v>
       </c>
       <c r="K11" s="7">
-        <v>76.4</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="L11" s="7">
         <v>85.5</v>
@@ -1627,7 +1916,7 @@
         <v>122.4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1502</v>
       </c>
@@ -1638,7 +1927,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E12" s="7">
         <v>18.2</v>
@@ -1659,16 +1948,16 @@
         <v>30.1</v>
       </c>
       <c r="K12" s="7">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="L12" s="7">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="M12" s="7">
         <v>38</v>
       </c>
       <c r="N12" s="7">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="O12" s="7">
         <v>41.2</v>
@@ -1677,7 +1966,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1500</v>
       </c>
@@ -1688,7 +1977,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E13" s="7">
         <v>9.9</v>
@@ -1706,7 +1995,7 @@
         <v>15.9</v>
       </c>
       <c r="J13" s="7">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K13" s="7">
         <v>20.2</v>
@@ -1727,7 +2016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>947</v>
       </c>
@@ -1738,7 +2027,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E14" s="7">
         <v>9.1</v>
@@ -1759,7 +2048,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L14" s="7">
         <v>22.5</v>
@@ -1771,13 +2060,13 @@
         <v>29.5</v>
       </c>
       <c r="O14" s="7">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P14" s="7">
         <v>38.6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>903</v>
       </c>
@@ -1809,7 +2098,7 @@
         <v>16.2</v>
       </c>
       <c r="K15" s="7">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L15" s="7">
         <v>21.4</v>
@@ -1827,7 +2116,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>910</v>
       </c>
@@ -1853,7 +2142,7 @@
         <v>16.5</v>
       </c>
       <c r="I16" s="7">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="J16" s="7">
         <v>22.1</v>
@@ -1868,7 +2157,7 @@
         <v>33.9</v>
       </c>
       <c r="N16" s="7">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="O16" s="7">
         <v>45.1</v>
@@ -1877,7 +2166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>108</v>
       </c>
@@ -1906,7 +2195,7 @@
         <v>143</v>
       </c>
       <c r="J17" s="7">
-        <v>160.3</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="K17" s="7">
         <v>183.1</v>
@@ -1921,13 +2210,13 @@
         <v>249.2</v>
       </c>
       <c r="O17" s="7">
-        <v>289.1</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="P17" s="7">
         <v>341.4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>174</v>
       </c>
@@ -1953,7 +2242,7 @@
         <v>123.6</v>
       </c>
       <c r="I18" s="7">
-        <v>138.3</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="J18" s="7">
         <v>165.4</v>
@@ -1968,7 +2257,7 @@
         <v>255.5</v>
       </c>
       <c r="N18" s="7">
-        <v>291.4</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="O18" s="7">
         <v>328.7</v>
@@ -1977,7 +2266,7 @@
         <v>370.6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>262</v>
       </c>
@@ -2003,13 +2292,13 @@
         <v>6.9</v>
       </c>
       <c r="I19" s="7">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J19" s="7">
         <v>15.5</v>
       </c>
       <c r="K19" s="7">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="L19" s="7">
         <v>25.5</v>
@@ -2021,13 +2310,13 @@
         <v>31</v>
       </c>
       <c r="O19" s="7">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P19" s="7">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>232</v>
       </c>
@@ -2050,7 +2339,7 @@
         <v>15.7</v>
       </c>
       <c r="H20" s="7">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I20" s="7">
         <v>20.6</v>
@@ -2071,13 +2360,13 @@
         <v>33.6</v>
       </c>
       <c r="O20" s="7">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="P20" s="7">
         <v>43.5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>231</v>
       </c>
@@ -2088,10 +2377,10 @@
         <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E21" s="7">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F21" s="7">
         <v>22.2</v>
@@ -2106,10 +2395,10 @@
         <v>32.6</v>
       </c>
       <c r="J21" s="7">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="K21" s="7">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="L21" s="7">
         <v>48.1</v>
@@ -2127,7 +2416,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>404</v>
       </c>
@@ -2177,7 +2466,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>450</v>
       </c>
@@ -2194,7 +2483,7 @@
         <v>7.8</v>
       </c>
       <c r="F23" s="7">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G23" s="7">
         <v>9.9</v>
@@ -2212,7 +2501,7 @@
         <v>17.3</v>
       </c>
       <c r="L23" s="7">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M23" s="7">
         <v>23.2</v>
@@ -2227,7 +2516,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>454</v>
       </c>
@@ -2256,7 +2545,7 @@
         <v>56.1</v>
       </c>
       <c r="J24" s="7">
-        <v>65.4</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="K24" s="7">
         <v>76.5</v>
@@ -2271,13 +2560,13 @@
         <v>120.7</v>
       </c>
       <c r="O24" s="7">
-        <v>138.3</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="P24" s="7">
         <v>160.9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>480</v>
       </c>
@@ -2291,10 +2580,10 @@
         <v>243</v>
       </c>
       <c r="E25" s="7">
-        <v>281.1</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="F25" s="7">
-        <v>325.1</v>
+        <v>325.10000000000002</v>
       </c>
       <c r="G25" s="7">
         <v>371.1</v>
@@ -2318,16 +2607,16 @@
         <v>556</v>
       </c>
       <c r="N25" s="7">
-        <v>583.8</v>
+        <v>583.79999999999995</v>
       </c>
       <c r="O25" s="7">
         <v>602</v>
       </c>
       <c r="P25" s="7">
-        <v>614.8</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>614.79999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>175</v>
       </c>
@@ -2347,7 +2636,7 @@
         <v>64</v>
       </c>
       <c r="G26" s="7">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="H26" s="7">
         <v>98.6</v>
@@ -2377,7 +2666,7 @@
         <v>556.6</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>508</v>
       </c>
@@ -2427,7 +2716,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>638</v>
       </c>
@@ -2444,10 +2733,10 @@
         <v>116.7</v>
       </c>
       <c r="F28" s="7">
-        <v>134.3</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="G28" s="7">
-        <v>156.3</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="H28" s="7">
         <v>184.8</v>
@@ -2465,19 +2754,19 @@
         <v>244.2</v>
       </c>
       <c r="M28" s="7">
-        <v>269.4</v>
+        <v>269.39999999999998</v>
       </c>
       <c r="N28" s="7">
         <v>294.7</v>
       </c>
       <c r="O28" s="7">
-        <v>316.6</v>
+        <v>316.60000000000002</v>
       </c>
       <c r="P28" s="7">
         <v>332.2</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>646</v>
       </c>
@@ -2500,7 +2789,7 @@
         <v>131</v>
       </c>
       <c r="H29" s="7">
-        <v>152.2</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="I29" s="7">
         <v>176.7</v>
@@ -2527,7 +2816,7 @@
         <v>415.4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>690</v>
       </c>
@@ -2559,7 +2848,7 @@
         <v>144.1</v>
       </c>
       <c r="K30" s="7">
-        <v>151.8</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="L30" s="7">
         <v>153.5</v>
@@ -2577,7 +2866,7 @@
         <v>198.7</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>706</v>
       </c>
@@ -2594,10 +2883,10 @@
         <v>4</v>
       </c>
       <c r="F31" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G31" s="7">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H31" s="7">
         <v>5.5</v>
@@ -2621,13 +2910,13 @@
         <v>14.4</v>
       </c>
       <c r="O31" s="7">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="P31" s="7">
         <v>19.2</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>728</v>
       </c>
@@ -2677,7 +2966,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>800</v>
       </c>
@@ -2727,7 +3016,7 @@
         <v>169.7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>834</v>
       </c>
@@ -2765,7 +3054,7 @@
         <v>28.7</v>
       </c>
       <c r="M34" s="7">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="N34" s="7">
         <v>38.6</v>
@@ -2777,7 +3066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>894</v>
       </c>
@@ -2794,7 +3083,7 @@
         <v>3.5</v>
       </c>
       <c r="F35" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G35" s="7">
         <v>4.8</v>
@@ -2824,10 +3113,10 @@
         <v>16.2</v>
       </c>
       <c r="P35" s="7">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>716</v>
       </c>
@@ -2841,10 +3130,10 @@
         <v>7.1</v>
       </c>
       <c r="E36" s="7">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F36" s="7">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G36" s="7">
         <v>11.4</v>
@@ -2877,7 +3166,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>911</v>
       </c>
@@ -2888,7 +3177,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E37" s="7">
         <v>4.5</v>
@@ -2906,7 +3195,7 @@
         <v>7.2</v>
       </c>
       <c r="J37" s="7">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K37" s="7">
         <v>9.5</v>
@@ -2927,7 +3216,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>24</v>
       </c>
@@ -2941,7 +3230,7 @@
         <v>3.6</v>
       </c>
       <c r="E38" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F38" s="7">
         <v>4.5</v>
@@ -2962,7 +3251,7 @@
         <v>8.5</v>
       </c>
       <c r="L38" s="7">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M38" s="7">
         <v>11.4</v>
@@ -2977,7 +3266,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>120</v>
       </c>
@@ -3018,7 +3307,7 @@
         <v>28.5</v>
       </c>
       <c r="N39" s="7">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="O39" s="7">
         <v>36.9</v>
@@ -3027,7 +3316,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>140</v>
       </c>
@@ -3041,7 +3330,7 @@
         <v>2.1</v>
       </c>
       <c r="E40" s="7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F40" s="7">
         <v>2.4</v>
@@ -3077,7 +3366,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>148</v>
       </c>
@@ -3091,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F41" s="7">
         <v>2.4</v>
@@ -3127,7 +3416,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>178</v>
       </c>
@@ -3165,7 +3454,7 @@
         <v>7.1</v>
       </c>
       <c r="M42" s="7">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N42" s="7">
         <v>9.4</v>
@@ -3177,7 +3466,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>180</v>
       </c>
@@ -3200,7 +3489,7 @@
         <v>7.7</v>
       </c>
       <c r="H43" s="7">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I43" s="7">
         <v>10.1</v>
@@ -3227,7 +3516,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>226</v>
       </c>
@@ -3253,7 +3542,7 @@
         <v>10.9</v>
       </c>
       <c r="I44" s="7">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J44" s="7">
         <v>9.1</v>
@@ -3277,7 +3566,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>266</v>
       </c>
@@ -3300,7 +3589,7 @@
         <v>2.1</v>
       </c>
       <c r="H45" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I45" s="7">
         <v>2.5</v>
@@ -3327,7 +3616,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>678</v>
       </c>
@@ -3344,7 +3633,7 @@
         <v>61.2</v>
       </c>
       <c r="F46" s="7">
-        <v>66.9</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="G46" s="7">
         <v>67.5</v>
@@ -3365,7 +3654,7 @@
         <v>118.6</v>
       </c>
       <c r="M46" s="7">
-        <v>131.7</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="N46" s="7">
         <v>144.4</v>
@@ -3377,7 +3666,7 @@
         <v>182.1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>912</v>
       </c>
@@ -3394,7 +3683,7 @@
         <v>7.2</v>
       </c>
       <c r="F47" s="7">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G47" s="7">
         <v>9.4</v>
@@ -3415,7 +3704,7 @@
         <v>18.2</v>
       </c>
       <c r="M47" s="7">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="N47" s="7">
         <v>22.2</v>
@@ -3427,7 +3716,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>12</v>
       </c>
@@ -3441,7 +3730,7 @@
         <v>3.7</v>
       </c>
       <c r="E48" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F48" s="7">
         <v>4.7</v>
@@ -3477,7 +3766,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>818</v>
       </c>
@@ -3500,7 +3789,7 @@
         <v>31</v>
       </c>
       <c r="H49" s="7">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="I49" s="7">
         <v>39.4</v>
@@ -3521,13 +3810,13 @@
         <v>70.2</v>
       </c>
       <c r="O49" s="7">
-        <v>77.1</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="P49" s="7">
         <v>84.5</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>434</v>
       </c>
@@ -3559,7 +3848,7 @@
         <v>1.8</v>
       </c>
       <c r="K50" s="7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L50" s="7">
         <v>2.5</v>
@@ -3577,7 +3866,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>504</v>
       </c>
@@ -3588,7 +3877,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="7">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E51" s="7">
         <v>23.5</v>
@@ -3618,16 +3907,16 @@
         <v>60.7</v>
       </c>
       <c r="N51" s="7">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="O51" s="7">
-        <v>68.4</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="P51" s="7">
-        <v>72.6</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>729</v>
       </c>
@@ -3656,10 +3945,10 @@
         <v>6.9</v>
       </c>
       <c r="J52" s="7">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K52" s="7">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L52" s="7">
         <v>11.4</v>
@@ -3677,7 +3966,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>788</v>
       </c>
@@ -3727,7 +4016,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>732</v>
       </c>
@@ -3777,7 +4066,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>913</v>
       </c>
@@ -3800,7 +4089,7 @@
         <v>8.5</v>
       </c>
       <c r="H55" s="7">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I55" s="7">
         <v>11.2</v>
@@ -3815,7 +4104,7 @@
         <v>16.2</v>
       </c>
       <c r="M55" s="7">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N55" s="7">
         <v>19.7</v>
@@ -3827,7 +4116,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>72</v>
       </c>
@@ -3847,7 +4136,7 @@
         <v>0.9</v>
       </c>
       <c r="G56" s="7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H56" s="7">
         <v>1.2</v>
@@ -3877,7 +4166,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>426</v>
       </c>
@@ -3927,7 +4216,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>516</v>
       </c>
@@ -3953,7 +4242,7 @@
         <v>0.9</v>
       </c>
       <c r="I58" s="7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J58" s="7">
         <v>1.2</v>
@@ -3968,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="N58" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O58" s="7">
         <v>2.5</v>
@@ -3977,7 +4266,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>710</v>
       </c>
@@ -3997,7 +4286,7 @@
         <v>14.4</v>
       </c>
       <c r="G59" s="7">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H59" s="7">
         <v>18.8</v>
@@ -4015,19 +4304,19 @@
         <v>31</v>
       </c>
       <c r="M59" s="7">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="N59" s="7">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="O59" s="7">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="P59" s="7">
         <v>42.5</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>748</v>
       </c>
@@ -4041,7 +4330,7 @@
         <v>15.9</v>
       </c>
       <c r="E60" s="7">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F60" s="7">
         <v>20.3</v>
@@ -4074,10 +4363,10 @@
         <v>64.3</v>
       </c>
       <c r="P60" s="7">
-        <v>69.9</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>914</v>
       </c>
@@ -4118,7 +4407,7 @@
         <v>34.1</v>
       </c>
       <c r="N61" s="7">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="O61" s="7">
         <v>44.3</v>
@@ -4127,7 +4416,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>204</v>
       </c>
@@ -4141,7 +4430,7 @@
         <v>20</v>
       </c>
       <c r="E62" s="7">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F62" s="7">
         <v>21.6</v>
@@ -4174,10 +4463,10 @@
         <v>70.8</v>
       </c>
       <c r="P62" s="7">
-        <v>81.6</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>854</v>
       </c>
@@ -4197,7 +4486,7 @@
         <v>17.7</v>
       </c>
       <c r="G63" s="7">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H63" s="7">
         <v>20.6</v>
@@ -4212,7 +4501,7 @@
         <v>28.2</v>
       </c>
       <c r="L63" s="7">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="M63" s="7">
         <v>36.9</v>
@@ -4227,7 +4516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>132</v>
       </c>
@@ -4253,10 +4542,10 @@
         <v>67</v>
       </c>
       <c r="I64" s="7">
-        <v>67.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="J64" s="7">
-        <v>71.1</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="K64" s="7">
         <v>78.2</v>
@@ -4277,7 +4566,7 @@
         <v>124.7</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>384</v>
       </c>
@@ -4288,7 +4577,7 @@
         <v>10</v>
       </c>
       <c r="D65" s="7">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E65" s="7">
         <v>9.5</v>
@@ -4327,7 +4616,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>270</v>
       </c>
@@ -4371,13 +4660,13 @@
         <v>121.7</v>
       </c>
       <c r="O66" s="7">
-        <v>142.7</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="P66" s="7">
         <v>167.2</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>288</v>
       </c>
@@ -4400,7 +4689,7 @@
         <v>33.9</v>
       </c>
       <c r="H67" s="7">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="I67" s="7">
         <v>43.2</v>
@@ -4427,7 +4716,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>324</v>
       </c>
@@ -4456,7 +4745,7 @@
         <v>17.8</v>
       </c>
       <c r="J68" s="7">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="K68" s="7">
         <v>20.7</v>
@@ -4468,7 +4757,7 @@
         <v>32</v>
       </c>
       <c r="N68" s="7">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="O68" s="7">
         <v>39.4</v>
@@ -4477,7 +4766,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>624</v>
       </c>
@@ -4527,7 +4816,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>430</v>
       </c>
@@ -4538,7 +4827,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="7">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E70" s="7">
         <v>10.5</v>
@@ -4553,10 +4842,10 @@
         <v>14.7</v>
       </c>
       <c r="I70" s="7">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J70" s="7">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K70" s="7">
         <v>22.8</v>
@@ -4577,7 +4866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>466</v>
       </c>
@@ -4591,16 +4880,16 @@
         <v>3.9</v>
       </c>
       <c r="E71" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F71" s="7">
         <v>4.3</v>
       </c>
       <c r="G71" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H71" s="7">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I71" s="7">
         <v>5.3</v>
@@ -4627,7 +4916,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>478</v>
       </c>
@@ -4650,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I72" s="7">
         <v>1.3</v>
@@ -4665,7 +4954,7 @@
         <v>2</v>
       </c>
       <c r="M72" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N72" s="7">
         <v>2.6</v>
@@ -4677,7 +4966,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>562</v>
       </c>
@@ -4691,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F73" s="7">
         <v>2.7</v>
@@ -4703,7 +4992,7 @@
         <v>3.6</v>
       </c>
       <c r="I73" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J73" s="7">
         <v>4.7</v>
@@ -4727,7 +5016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>566</v>
       </c>
@@ -4753,7 +5042,7 @@
         <v>61.5</v>
       </c>
       <c r="I74" s="7">
-        <v>69.6</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="J74" s="7">
         <v>80.7</v>
@@ -4768,7 +5057,7 @@
         <v>118.6</v>
       </c>
       <c r="N74" s="7">
-        <v>134.3</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="O74" s="7">
         <v>152.6</v>
@@ -4777,7 +5066,7 @@
         <v>174.1</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>654</v>
       </c>
@@ -4827,7 +5116,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>686</v>
       </c>
@@ -4847,7 +5136,7 @@
         <v>16.7</v>
       </c>
       <c r="G76" s="7">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="H76" s="7">
         <v>22.1</v>
@@ -4859,10 +5148,10 @@
         <v>29</v>
       </c>
       <c r="K76" s="7">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="L76" s="7">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M76" s="7">
         <v>45.4</v>
@@ -4874,10 +5163,10 @@
         <v>58.4</v>
       </c>
       <c r="P76" s="7">
-        <v>67.1</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>694</v>
       </c>
@@ -4897,10 +5186,10 @@
         <v>31.8</v>
       </c>
       <c r="G77" s="7">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="H77" s="7">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="I77" s="7">
         <v>41.5</v>
@@ -4921,13 +5210,13 @@
         <v>63.2</v>
       </c>
       <c r="O77" s="7">
-        <v>78.4</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="P77" s="7">
         <v>89.5</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>768</v>
       </c>
@@ -4962,10 +5251,10 @@
         <v>59.8</v>
       </c>
       <c r="L78" s="7">
-        <v>69.6</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="M78" s="7">
-        <v>78.6</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="N78" s="7">
         <v>91.4</v>
@@ -4977,7 +5266,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>935</v>
       </c>
@@ -5000,7 +5289,7 @@
         <v>60.9</v>
       </c>
       <c r="H79" s="7">
-        <v>68.9</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="I79" s="7">
         <v>77.2</v>
@@ -5024,10 +5313,10 @@
         <v>127.7</v>
       </c>
       <c r="P79" s="7">
-        <v>135.2</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>906</v>
       </c>
@@ -5041,13 +5330,13 @@
         <v>58.6</v>
       </c>
       <c r="E80" s="7">
-        <v>64.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="F80" s="7">
         <v>69.5</v>
       </c>
       <c r="G80" s="7">
-        <v>76.1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="H80" s="7">
         <v>86.2</v>
@@ -5068,7 +5357,7 @@
         <v>126.6</v>
       </c>
       <c r="N80" s="7">
-        <v>130.8</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="O80" s="7">
         <v>134.5</v>
@@ -5077,7 +5366,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>156</v>
       </c>
@@ -5091,10 +5380,10 @@
         <v>59.1</v>
       </c>
       <c r="E81" s="7">
-        <v>65.1</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="F81" s="7">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="G81" s="7">
         <v>77</v>
@@ -5118,16 +5407,16 @@
         <v>132.1</v>
       </c>
       <c r="N81" s="7">
-        <v>136.7</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="O81" s="7">
-        <v>140.8</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="P81" s="7">
-        <v>144.8</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>144.80000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>344</v>
       </c>
@@ -5156,10 +5445,10 @@
         <v>4034.3</v>
       </c>
       <c r="J82" s="7">
-        <v>4681.4</v>
+        <v>4681.3999999999996</v>
       </c>
       <c r="K82" s="7">
-        <v>5083.4</v>
+        <v>5083.3999999999996</v>
       </c>
       <c r="L82" s="7">
         <v>5506.2</v>
@@ -5177,7 +5466,7 @@
         <v>6690.7</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>446</v>
       </c>
@@ -5209,7 +5498,7 @@
         <v>7963.8</v>
       </c>
       <c r="K83" s="7">
-        <v>9484.3</v>
+        <v>9484.2999999999993</v>
       </c>
       <c r="L83" s="7">
         <v>11502.8</v>
@@ -5227,7 +5516,7 @@
         <v>17958.8</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>158</v>
       </c>
@@ -5259,7 +5548,7 @@
         <v>500.3</v>
       </c>
       <c r="K84" s="7">
-        <v>540.2</v>
+        <v>540.20000000000005</v>
       </c>
       <c r="L84" s="7">
         <v>573.6</v>
@@ -5268,16 +5557,16 @@
         <v>599.5</v>
       </c>
       <c r="N84" s="7">
-        <v>616.8</v>
+        <v>616.79999999999995</v>
       </c>
       <c r="O84" s="7">
-        <v>638.3</v>
+        <v>638.29999999999995</v>
       </c>
       <c r="P84" s="7">
         <v>652.4</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>408</v>
       </c>
@@ -5303,13 +5592,13 @@
         <v>119.7</v>
       </c>
       <c r="I85" s="7">
-        <v>135.2</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="J85" s="7">
         <v>145.1</v>
       </c>
       <c r="K85" s="7">
-        <v>156.8</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="L85" s="7">
         <v>168.5</v>
@@ -5327,7 +5616,7 @@
         <v>204.2</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>392</v>
       </c>
@@ -5353,7 +5642,7 @@
         <v>287.8</v>
       </c>
       <c r="I86" s="7">
-        <v>308.4</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="J86" s="7">
         <v>323.2</v>
@@ -5377,7 +5666,7 @@
         <v>352.6</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>496</v>
       </c>
@@ -5406,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K87" s="7">
         <v>1.2</v>
@@ -5427,7 +5716,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>410</v>
       </c>
@@ -5444,7 +5733,7 @@
         <v>221.4</v>
       </c>
       <c r="F88" s="7">
-        <v>260.6</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="G88" s="7">
         <v>297.3</v>
@@ -5477,7 +5766,7 @@
         <v>509.6</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>921</v>
       </c>
@@ -5497,7 +5786,7 @@
         <v>59.9</v>
       </c>
       <c r="G89" s="7">
-        <v>66.9</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="H89" s="7">
         <v>75</v>
@@ -5527,7 +5816,7 @@
         <v>171.3</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>5500</v>
       </c>
@@ -5538,7 +5827,7 @@
         <v>10</v>
       </c>
       <c r="D90" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E90" s="7">
         <v>5.2</v>
@@ -5574,10 +5863,10 @@
         <v>15</v>
       </c>
       <c r="P90" s="7">
-        <v>16.1</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>398</v>
       </c>
@@ -5597,10 +5886,10 @@
         <v>3.7</v>
       </c>
       <c r="G91" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H91" s="7">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I91" s="7">
         <v>5.2</v>
@@ -5627,7 +5916,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>417</v>
       </c>
@@ -5677,7 +5966,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>762</v>
       </c>
@@ -5712,7 +6001,7 @@
         <v>32.4</v>
       </c>
       <c r="L93" s="7">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="M93" s="7">
         <v>41.2</v>
@@ -5727,7 +6016,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>795</v>
       </c>
@@ -5777,7 +6066,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>860</v>
       </c>
@@ -5794,7 +6083,7 @@
         <v>17.2</v>
       </c>
       <c r="F95" s="7">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G95" s="7">
         <v>23.8</v>
@@ -5803,7 +6092,7 @@
         <v>28.5</v>
       </c>
       <c r="I95" s="7">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="J95" s="7">
         <v>37.5</v>
@@ -5827,7 +6116,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>5501</v>
       </c>
@@ -5838,7 +6127,7 @@
         <v>10</v>
       </c>
       <c r="D96" s="7">
-        <v>77.1</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="E96" s="7">
         <v>84</v>
@@ -5856,7 +6145,7 @@
         <v>130</v>
       </c>
       <c r="J96" s="7">
-        <v>146.7</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="K96" s="7">
         <v>165.6</v>
@@ -5877,7 +6166,7 @@
         <v>266.5</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>4</v>
       </c>
@@ -5927,7 +6216,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>50</v>
       </c>
@@ -5938,10 +6227,10 @@
         <v>10</v>
       </c>
       <c r="D98" s="7">
-        <v>291.1</v>
+        <v>291.10000000000002</v>
       </c>
       <c r="E98" s="7">
-        <v>323.6</v>
+        <v>323.60000000000002</v>
       </c>
       <c r="F98" s="7">
         <v>370.3</v>
@@ -5953,7 +6242,7 @@
         <v>499.7</v>
       </c>
       <c r="I98" s="7">
-        <v>547.8</v>
+        <v>547.79999999999995</v>
       </c>
       <c r="J98" s="7">
         <v>625.9</v>
@@ -5971,13 +6260,13 @@
         <v>1010.8</v>
       </c>
       <c r="O98" s="7">
-        <v>1101.9</v>
+        <v>1101.9000000000001</v>
       </c>
       <c r="P98" s="7">
         <v>1168.8</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>64</v>
       </c>
@@ -5988,7 +6277,7 @@
         <v>10</v>
       </c>
       <c r="D99" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E99" s="7">
         <v>5.2</v>
@@ -6003,7 +6292,7 @@
         <v>7.8</v>
       </c>
       <c r="I99" s="7">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J99" s="7">
         <v>10.7</v>
@@ -6024,10 +6313,10 @@
         <v>17.2</v>
       </c>
       <c r="P99" s="7">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>356</v>
       </c>
@@ -6041,10 +6330,10 @@
         <v>126.6</v>
       </c>
       <c r="E100" s="7">
-        <v>137.7</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="F100" s="7">
-        <v>151.2</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="G100" s="7">
         <v>167.4</v>
@@ -6059,7 +6348,7 @@
         <v>234.4</v>
       </c>
       <c r="K100" s="7">
-        <v>262.9</v>
+        <v>262.89999999999998</v>
       </c>
       <c r="L100" s="7">
         <v>292.7</v>
@@ -6077,7 +6366,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>364</v>
       </c>
@@ -6103,7 +6392,7 @@
         <v>17.5</v>
       </c>
       <c r="I101" s="7">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="J101" s="7">
         <v>23.7</v>
@@ -6115,7 +6404,7 @@
         <v>34.5</v>
       </c>
       <c r="M101" s="7">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="N101" s="7">
         <v>40.6</v>
@@ -6127,7 +6416,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>462</v>
       </c>
@@ -6144,7 +6433,7 @@
         <v>265.7</v>
       </c>
       <c r="F102" s="7">
-        <v>299.6</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="G102" s="7">
         <v>342.6</v>
@@ -6177,7 +6466,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>524</v>
       </c>
@@ -6197,7 +6486,7 @@
         <v>70.2</v>
       </c>
       <c r="G103" s="7">
-        <v>76.1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="H103" s="7">
         <v>83.7</v>
@@ -6212,10 +6501,10 @@
         <v>116.7</v>
       </c>
       <c r="L103" s="7">
-        <v>130.8</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="M103" s="7">
-        <v>149.3</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="N103" s="7">
         <v>165.6</v>
@@ -6227,7 +6516,7 @@
         <v>188.5</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>586</v>
       </c>
@@ -6250,7 +6539,7 @@
         <v>66</v>
       </c>
       <c r="H104" s="7">
-        <v>75.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="I104" s="7">
         <v>86.6</v>
@@ -6262,10 +6551,10 @@
         <v>119.6</v>
       </c>
       <c r="L104" s="7">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="M104" s="7">
-        <v>159.3</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="N104" s="7">
         <v>179.7</v>
@@ -6277,7 +6566,7 @@
         <v>221.3</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>144</v>
       </c>
@@ -6324,10 +6613,10 @@
         <v>311.3</v>
       </c>
       <c r="P105" s="7">
-        <v>322.1</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>322.10000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>920</v>
       </c>
@@ -6350,10 +6639,10 @@
         <v>56.5</v>
       </c>
       <c r="H106" s="7">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="I106" s="7">
-        <v>73.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="J106" s="7">
         <v>82.2</v>
@@ -6377,7 +6666,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>96</v>
       </c>
@@ -6397,7 +6686,7 @@
         <v>15.5</v>
       </c>
       <c r="G107" s="7">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H107" s="7">
         <v>24.6</v>
@@ -6406,7 +6695,7 @@
         <v>30.7</v>
       </c>
       <c r="J107" s="7">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="K107" s="7">
         <v>42.6</v>
@@ -6427,7 +6716,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>116</v>
       </c>
@@ -6474,10 +6763,10 @@
         <v>75.2</v>
       </c>
       <c r="P108" s="7">
-        <v>81.1</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>360</v>
       </c>
@@ -6506,7 +6795,7 @@
         <v>72.2</v>
       </c>
       <c r="J109" s="7">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K109" s="7">
         <v>91.1</v>
@@ -6527,7 +6816,7 @@
         <v>133.9</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>418</v>
       </c>
@@ -6541,10 +6830,10 @@
         <v>7.3</v>
       </c>
       <c r="E110" s="7">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F110" s="7">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G110" s="7">
         <v>10.3</v>
@@ -6577,7 +6866,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>458</v>
       </c>
@@ -6588,7 +6877,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="7">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E111" s="7">
         <v>21.4</v>
@@ -6618,16 +6907,16 @@
         <v>62.4</v>
       </c>
       <c r="N111" s="7">
-        <v>70.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="O111" s="7">
-        <v>78.1</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="P111" s="7">
         <v>85.6</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>104</v>
       </c>
@@ -6647,7 +6936,7 @@
         <v>32.1</v>
       </c>
       <c r="G112" s="7">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H112" s="7">
         <v>40.4</v>
@@ -6668,7 +6957,7 @@
         <v>66.2</v>
       </c>
       <c r="N112" s="7">
-        <v>70.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="O112" s="7">
         <v>74.2</v>
@@ -6677,7 +6966,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>608</v>
       </c>
@@ -6691,7 +6980,7 @@
         <v>62.3</v>
       </c>
       <c r="E113" s="7">
-        <v>74.4</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="F113" s="7">
         <v>88.1</v>
@@ -6718,7 +7007,7 @@
         <v>234.2</v>
       </c>
       <c r="N113" s="7">
-        <v>261.6</v>
+        <v>261.60000000000002</v>
       </c>
       <c r="O113" s="7">
         <v>289.3</v>
@@ -6727,7 +7016,7 @@
         <v>314.3</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>702</v>
       </c>
@@ -6777,7 +7066,7 @@
         <v>7248.9</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>764</v>
       </c>
@@ -6827,7 +7116,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>626</v>
       </c>
@@ -6850,7 +7139,7 @@
         <v>36.9</v>
       </c>
       <c r="H116" s="7">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="I116" s="7">
         <v>44.7</v>
@@ -6874,10 +7163,10 @@
         <v>69</v>
       </c>
       <c r="P116" s="7">
-        <v>74.6</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>704</v>
       </c>
@@ -6903,7 +7192,7 @@
         <v>140</v>
       </c>
       <c r="I117" s="7">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="J117" s="7">
         <v>175.4</v>
@@ -6918,16 +7207,16 @@
         <v>242.5</v>
       </c>
       <c r="N117" s="7">
-        <v>258.9</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="O117" s="7">
-        <v>271.9</v>
+        <v>271.89999999999998</v>
       </c>
       <c r="P117" s="7">
         <v>285.3</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>922</v>
       </c>
@@ -6950,7 +7239,7 @@
         <v>15.7</v>
       </c>
       <c r="H118" s="7">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I118" s="7">
         <v>20.6</v>
@@ -6965,7 +7254,7 @@
         <v>31</v>
       </c>
       <c r="M118" s="7">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="N118" s="7">
         <v>38.5</v>
@@ -6977,7 +7266,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>51</v>
       </c>
@@ -7027,7 +7316,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>31</v>
       </c>
@@ -7041,7 +7330,7 @@
         <v>35.4</v>
       </c>
       <c r="E120" s="7">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="F120" s="7">
         <v>47.1</v>
@@ -7053,10 +7342,10 @@
         <v>62.7</v>
       </c>
       <c r="I120" s="7">
-        <v>68.6</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="J120" s="7">
-        <v>74.4</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="K120" s="7">
         <v>80.7</v>
@@ -7077,7 +7366,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>48</v>
       </c>
@@ -7127,7 +7416,7 @@
         <v>1632.7</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>196</v>
       </c>
@@ -7150,7 +7439,7 @@
         <v>62.9</v>
       </c>
       <c r="H122" s="7">
-        <v>66.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="I122" s="7">
         <v>70.3</v>
@@ -7177,7 +7466,7 @@
         <v>120.4</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>268</v>
       </c>
@@ -7203,7 +7492,7 @@
         <v>67.8</v>
       </c>
       <c r="I123" s="7">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="J123" s="7">
         <v>72.2</v>
@@ -7212,7 +7501,7 @@
         <v>75</v>
       </c>
       <c r="L123" s="7">
-        <v>77.9</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="M123" s="7">
         <v>72.2</v>
@@ -7221,13 +7510,13 @@
         <v>68</v>
       </c>
       <c r="O123" s="7">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="P123" s="7">
         <v>60.9</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>368</v>
       </c>
@@ -7262,7 +7551,7 @@
         <v>35.9</v>
       </c>
       <c r="L124" s="7">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="M124" s="7">
         <v>46.5</v>
@@ -7277,7 +7566,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>376</v>
       </c>
@@ -7291,7 +7580,7 @@
         <v>58.1</v>
       </c>
       <c r="E125" s="7">
-        <v>79.4</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="F125" s="7">
         <v>96.6</v>
@@ -7300,10 +7589,10 @@
         <v>116.6</v>
       </c>
       <c r="H125" s="7">
-        <v>131.7</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="I125" s="7">
-        <v>154.2</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="J125" s="7">
         <v>173</v>
@@ -7318,16 +7607,16 @@
         <v>246.5</v>
       </c>
       <c r="N125" s="7">
-        <v>277.9</v>
+        <v>277.89999999999998</v>
       </c>
       <c r="O125" s="7">
-        <v>305.1</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="P125" s="7">
         <v>343.2</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>400</v>
       </c>
@@ -7350,7 +7639,7 @@
         <v>13.2</v>
       </c>
       <c r="H126" s="7">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I126" s="7">
         <v>23.2</v>
@@ -7371,13 +7660,13 @@
         <v>57.5</v>
       </c>
       <c r="O126" s="7">
-        <v>64.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="P126" s="7">
-        <v>80.9</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>414</v>
       </c>
@@ -7391,7 +7680,7 @@
         <v>8.6</v>
       </c>
       <c r="E127" s="7">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F127" s="7">
         <v>15.1</v>
@@ -7427,7 +7716,7 @@
         <v>168.2</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>422</v>
       </c>
@@ -7441,7 +7730,7 @@
         <v>130.5</v>
       </c>
       <c r="E128" s="7">
-        <v>149.8</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="F128" s="7">
         <v>176.4</v>
@@ -7459,7 +7748,7 @@
         <v>254.7</v>
       </c>
       <c r="K128" s="7">
-        <v>261.6</v>
+        <v>261.60000000000002</v>
       </c>
       <c r="L128" s="7">
         <v>264.2</v>
@@ -7477,7 +7766,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>512</v>
       </c>
@@ -7500,7 +7789,7 @@
         <v>2</v>
       </c>
       <c r="H129" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I129" s="7">
         <v>2.8</v>
@@ -7524,10 +7813,10 @@
         <v>8.1</v>
       </c>
       <c r="P129" s="7">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>634</v>
       </c>
@@ -7538,13 +7827,13 @@
         <v>10</v>
       </c>
       <c r="D130" s="7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E130" s="7">
         <v>3.1</v>
       </c>
       <c r="F130" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G130" s="7">
         <v>6.3</v>
@@ -7574,10 +7863,10 @@
         <v>74.5</v>
       </c>
       <c r="P130" s="7">
-        <v>153.3</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>153.30000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>682</v>
       </c>
@@ -7597,7 +7886,7 @@
         <v>1.9</v>
       </c>
       <c r="G131" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H131" s="7">
         <v>2.7</v>
@@ -7615,10 +7904,10 @@
         <v>7.6</v>
       </c>
       <c r="M131" s="7">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N131" s="7">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="O131" s="7">
         <v>11.1</v>
@@ -7627,7 +7916,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>275</v>
       </c>
@@ -7638,7 +7927,7 @@
         <v>12</v>
       </c>
       <c r="D132" s="7">
-        <v>154.8</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E132" s="7">
         <v>164.1</v>
@@ -7659,7 +7948,7 @@
         <v>250.7</v>
       </c>
       <c r="K132" s="7">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="L132" s="7">
         <v>349</v>
@@ -7677,7 +7966,7 @@
         <v>675.6</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>760</v>
       </c>
@@ -7688,7 +7977,7 @@
         <v>10</v>
       </c>
       <c r="D133" s="7">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E133" s="7">
         <v>21.3</v>
@@ -7715,7 +8004,7 @@
         <v>67.8</v>
       </c>
       <c r="M133" s="7">
-        <v>78.1</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="N133" s="7">
         <v>89.4</v>
@@ -7727,7 +8016,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>792</v>
       </c>
@@ -7744,10 +8033,10 @@
         <v>31.5</v>
       </c>
       <c r="F134" s="7">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="G134" s="7">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="H134" s="7">
         <v>45.3</v>
@@ -7762,7 +8051,7 @@
         <v>63.8</v>
       </c>
       <c r="L134" s="7">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="M134" s="7">
         <v>76</v>
@@ -7777,7 +8066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>784</v>
       </c>
@@ -7794,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G135" s="7">
         <v>1.8</v>
@@ -7809,7 +8098,7 @@
         <v>12.5</v>
       </c>
       <c r="K135" s="7">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L135" s="7">
         <v>22.3</v>
@@ -7818,7 +8107,7 @@
         <v>29.3</v>
       </c>
       <c r="N135" s="7">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="O135" s="7">
         <v>54.8</v>
@@ -7827,7 +8116,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>887</v>
       </c>
@@ -7838,13 +8127,13 @@
         <v>10</v>
       </c>
       <c r="D136" s="7">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E136" s="7">
         <v>9</v>
       </c>
       <c r="F136" s="7">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G136" s="7">
         <v>10.7</v>
@@ -7877,7 +8166,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>908</v>
       </c>
@@ -7924,10 +8213,10 @@
         <v>33</v>
       </c>
       <c r="P137" s="7">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>923</v>
       </c>
@@ -7965,7 +8254,7 @@
         <v>17.2</v>
       </c>
       <c r="M138" s="7">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="N138" s="7">
         <v>16.8</v>
@@ -7977,7 +8266,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>112</v>
       </c>
@@ -7988,13 +8277,13 @@
         <v>10</v>
       </c>
       <c r="D139" s="7">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="E139" s="7">
         <v>38.5</v>
       </c>
       <c r="F139" s="7">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="G139" s="7">
         <v>42.2</v>
@@ -8027,7 +8316,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>100</v>
       </c>
@@ -8044,13 +8333,13 @@
         <v>69.7</v>
       </c>
       <c r="F140" s="7">
-        <v>72.6</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="G140" s="7">
         <v>75.7</v>
       </c>
       <c r="H140" s="7">
-        <v>78.4</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="I140" s="7">
         <v>80.5</v>
@@ -8062,7 +8351,7 @@
         <v>82.7</v>
       </c>
       <c r="L140" s="7">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="M140" s="7">
         <v>77.2</v>
@@ -8077,7 +8366,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>203</v>
       </c>
@@ -8109,7 +8398,7 @@
         <v>134</v>
       </c>
       <c r="K141" s="7">
-        <v>133.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="L141" s="7">
         <v>133.9</v>
@@ -8118,16 +8407,16 @@
         <v>134.1</v>
       </c>
       <c r="N141" s="7">
-        <v>133.2</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="O141" s="7">
-        <v>132.8</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="P141" s="7">
         <v>136.4</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>348</v>
       </c>
@@ -8177,7 +8466,7 @@
         <v>109.7</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>616</v>
       </c>
@@ -8188,7 +8477,7 @@
         <v>10</v>
       </c>
       <c r="D143" s="7">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="E143" s="7">
         <v>89</v>
@@ -8227,7 +8516,7 @@
         <v>125.1</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>498</v>
       </c>
@@ -8259,10 +8548,10 @@
         <v>122.1</v>
       </c>
       <c r="K144" s="7">
-        <v>128.3</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="L144" s="7">
-        <v>132.8</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="M144" s="7">
         <v>132.1</v>
@@ -8277,7 +8566,7 @@
         <v>124.3</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>642</v>
       </c>
@@ -8294,7 +8583,7 @@
         <v>76</v>
       </c>
       <c r="F145" s="7">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="G145" s="7">
         <v>84.2</v>
@@ -8327,7 +8616,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>643</v>
       </c>
@@ -8353,13 +8642,13 @@
         <v>7.9</v>
       </c>
       <c r="I146" s="7">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J146" s="7">
         <v>8.4</v>
       </c>
       <c r="K146" s="7">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L146" s="7">
         <v>9</v>
@@ -8371,13 +8660,13 @@
         <v>8.9</v>
       </c>
       <c r="O146" s="7">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P146" s="7">
-        <v>8.7</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>703</v>
       </c>
@@ -8427,7 +8716,7 @@
         <v>112.4</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>804</v>
       </c>
@@ -8438,16 +8727,16 @@
         <v>14</v>
       </c>
       <c r="D148" s="7">
-        <v>64.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="E148" s="7">
-        <v>69.1</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="F148" s="7">
-        <v>73.6</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="G148" s="7">
-        <v>78.1</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="H148" s="7">
         <v>81.3</v>
@@ -8471,13 +8760,13 @@
         <v>84.3</v>
       </c>
       <c r="O148" s="7">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="P148" s="7">
         <v>79</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>924</v>
       </c>
@@ -8527,7 +8816,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>830</v>
       </c>
@@ -8541,13 +8830,13 @@
         <v>538.1</v>
       </c>
       <c r="E150" s="7">
-        <v>555.8</v>
+        <v>555.79999999999995</v>
       </c>
       <c r="F150" s="7">
         <v>575.9</v>
       </c>
       <c r="G150" s="7">
-        <v>605.2</v>
+        <v>605.20000000000005</v>
       </c>
       <c r="H150" s="7">
         <v>637.9</v>
@@ -8577,7 +8866,7 @@
         <v>839.9</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>208</v>
       </c>
@@ -8627,7 +8916,7 @@
         <v>130.9</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>233</v>
       </c>
@@ -8656,7 +8945,7 @@
         <v>33.5</v>
       </c>
       <c r="J152" s="7">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="K152" s="7">
         <v>35.9</v>
@@ -8665,7 +8954,7 @@
         <v>36.9</v>
       </c>
       <c r="M152" s="7">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="N152" s="7">
         <v>33</v>
@@ -8677,7 +8966,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>234</v>
       </c>
@@ -8724,10 +9013,10 @@
         <v>34.6</v>
       </c>
       <c r="P153" s="7">
-        <v>34.8</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>246</v>
       </c>
@@ -8762,13 +9051,13 @@
         <v>16.2</v>
       </c>
       <c r="L154" s="7">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M154" s="7">
         <v>16.8</v>
       </c>
       <c r="N154" s="7">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="O154" s="7">
         <v>17.3</v>
@@ -8777,7 +9066,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>352</v>
       </c>
@@ -8803,10 +9092,10 @@
         <v>2</v>
       </c>
       <c r="I155" s="7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J155" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K155" s="7">
         <v>2.4</v>
@@ -8827,7 +9116,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>372</v>
       </c>
@@ -8877,7 +9166,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>833</v>
       </c>
@@ -8927,7 +9216,7 @@
         <v>140.5</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>428</v>
       </c>
@@ -8941,19 +9230,19 @@
         <v>31</v>
       </c>
       <c r="E158" s="7">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F158" s="7">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="G158" s="7">
         <v>36.4</v>
       </c>
       <c r="H158" s="7">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="I158" s="7">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="J158" s="7">
         <v>40.5</v>
@@ -8965,19 +9254,19 @@
         <v>42.8</v>
       </c>
       <c r="M158" s="7">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="N158" s="7">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="O158" s="7">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="P158" s="7">
         <v>34.1</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>440</v>
       </c>
@@ -9027,7 +9316,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>578</v>
       </c>
@@ -9044,10 +9333,10 @@
         <v>9.4</v>
       </c>
       <c r="F160" s="7">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G160" s="7">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H160" s="7">
         <v>10.6</v>
@@ -9077,7 +9366,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>752</v>
       </c>
@@ -9088,7 +9377,7 @@
         <v>10</v>
       </c>
       <c r="D161" s="7">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E161" s="7">
         <v>17.7</v>
@@ -9097,10 +9386,10 @@
         <v>18.2</v>
       </c>
       <c r="G161" s="7">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H161" s="7">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I161" s="7">
         <v>20</v>
@@ -9109,7 +9398,7 @@
         <v>20.3</v>
       </c>
       <c r="K161" s="7">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L161" s="7">
         <v>20.9</v>
@@ -9127,7 +9416,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>826</v>
       </c>
@@ -9177,7 +9466,7 @@
         <v>261.7</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>925</v>
       </c>
@@ -9227,7 +9516,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>8</v>
       </c>
@@ -9277,7 +9566,7 @@
         <v>107.3</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>20</v>
       </c>
@@ -9291,7 +9580,7 @@
         <v>13.2</v>
       </c>
       <c r="E165" s="7">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F165" s="7">
         <v>28.5</v>
@@ -9327,7 +9616,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>70</v>
       </c>
@@ -9353,7 +9642,7 @@
         <v>73.7</v>
       </c>
       <c r="I166" s="7">
-        <v>78.1</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="J166" s="7">
         <v>82</v>
@@ -9365,19 +9654,19 @@
         <v>87.5</v>
       </c>
       <c r="M166" s="7">
-        <v>75.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="N166" s="7">
-        <v>73.9</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="O166" s="7">
-        <v>74.1</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="P166" s="7">
         <v>73</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>191</v>
       </c>
@@ -9394,16 +9683,16 @@
         <v>72</v>
       </c>
       <c r="F167" s="7">
-        <v>74.9</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="G167" s="7">
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="H167" s="7">
         <v>79</v>
       </c>
       <c r="I167" s="7">
-        <v>80.4</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="J167" s="7">
         <v>82.2</v>
@@ -9418,7 +9707,7 @@
         <v>82.5</v>
       </c>
       <c r="N167" s="7">
-        <v>79.1</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="O167" s="7">
         <v>78.2</v>
@@ -9427,7 +9716,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>292</v>
       </c>
@@ -9477,7 +9766,7 @@
         <v>3318.9</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>300</v>
       </c>
@@ -9497,19 +9786,19 @@
         <v>64.2</v>
       </c>
       <c r="G169" s="7">
-        <v>65.6</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="H169" s="7">
         <v>67.2</v>
       </c>
       <c r="I169" s="7">
-        <v>69.9</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="J169" s="7">
         <v>74.7</v>
       </c>
       <c r="K169" s="7">
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="L169" s="7">
         <v>79.5</v>
@@ -9527,7 +9816,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>336</v>
       </c>
@@ -9577,7 +9866,7 @@
         <v>1804.5</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>380</v>
       </c>
@@ -9627,7 +9916,7 @@
         <v>203.1</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>470</v>
       </c>
@@ -9668,7 +9957,7 @@
         <v>1188.5</v>
       </c>
       <c r="N172" s="7">
-        <v>1239.6</v>
+        <v>1239.5999999999999</v>
       </c>
       <c r="O172" s="7">
         <v>1271.2</v>
@@ -9677,7 +9966,7 @@
         <v>1300.3</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>499</v>
       </c>
@@ -9694,10 +9983,10 @@
         <v>33</v>
       </c>
       <c r="F173" s="7">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="G173" s="7">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H173" s="7">
         <v>38.6</v>
@@ -9727,7 +10016,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>620</v>
       </c>
@@ -9777,7 +10066,7 @@
         <v>116.3</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>674</v>
       </c>
@@ -9794,7 +10083,7 @@
         <v>229.5</v>
       </c>
       <c r="F175" s="7">
-        <v>256.6</v>
+        <v>256.60000000000002</v>
       </c>
       <c r="G175" s="7">
         <v>290.7</v>
@@ -9827,7 +10116,7 @@
         <v>518.5</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>688</v>
       </c>
@@ -9877,7 +10166,7 @@
         <v>103.2</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>705</v>
       </c>
@@ -9888,7 +10177,7 @@
         <v>10</v>
       </c>
       <c r="D177" s="7">
-        <v>73.1</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E177" s="7">
         <v>75.8</v>
@@ -9897,7 +10186,7 @@
         <v>78.8</v>
       </c>
       <c r="G177" s="7">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="H177" s="7">
         <v>82.9</v>
@@ -9927,7 +10216,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>724</v>
       </c>
@@ -9947,19 +10236,19 @@
         <v>61.1</v>
       </c>
       <c r="G178" s="7">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="H178" s="7">
-        <v>68.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="I178" s="7">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="J178" s="7">
         <v>75.8</v>
       </c>
       <c r="K178" s="7">
-        <v>77.9</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="L178" s="7">
         <v>78.8</v>
@@ -9977,7 +10266,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>807</v>
       </c>
@@ -10009,13 +10298,13 @@
         <v>76.3</v>
       </c>
       <c r="K179" s="7">
-        <v>78.6</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="L179" s="7">
         <v>79.2</v>
       </c>
       <c r="M179" s="7">
-        <v>78.6</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="N179" s="7">
         <v>80.7</v>
@@ -10027,7 +10316,7 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>926</v>
       </c>
@@ -10038,13 +10327,13 @@
         <v>10</v>
       </c>
       <c r="D180" s="7">
-        <v>131.3</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="E180" s="7">
         <v>135.4</v>
       </c>
       <c r="F180" s="7">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="G180" s="7">
         <v>147.9</v>
@@ -10077,7 +10366,7 @@
         <v>173.6</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>40</v>
       </c>
@@ -10127,7 +10416,7 @@
         <v>102.1</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>56</v>
       </c>
@@ -10147,16 +10436,16 @@
         <v>302.8</v>
       </c>
       <c r="G182" s="7">
-        <v>311.9</v>
+        <v>311.89999999999998</v>
       </c>
       <c r="H182" s="7">
-        <v>318.1</v>
+        <v>318.10000000000002</v>
       </c>
       <c r="I182" s="7">
         <v>322.7</v>
       </c>
       <c r="J182" s="7">
-        <v>325.9</v>
+        <v>325.89999999999998</v>
       </c>
       <c r="K182" s="7">
         <v>327.5</v>
@@ -10177,7 +10466,7 @@
         <v>361.3</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>250</v>
       </c>
@@ -10227,7 +10516,7 @@
         <v>115.1</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>276</v>
       </c>
@@ -10277,7 +10566,7 @@
         <v>232.1</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>438</v>
       </c>
@@ -10306,7 +10595,7 @@
         <v>146.4</v>
       </c>
       <c r="J185" s="7">
-        <v>161.7</v>
+        <v>161.69999999999999</v>
       </c>
       <c r="K185" s="7">
         <v>170.4</v>
@@ -10327,7 +10616,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>442</v>
       </c>
@@ -10353,13 +10642,13 @@
         <v>131.1</v>
       </c>
       <c r="I186" s="7">
-        <v>136.7</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="J186" s="7">
         <v>140.6</v>
       </c>
       <c r="K186" s="7">
-        <v>141.7</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="L186" s="7">
         <v>147.4</v>
@@ -10377,7 +10666,7 @@
         <v>196.1</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>492</v>
       </c>
@@ -10427,7 +10716,7 @@
         <v>24895.3</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>528</v>
       </c>
@@ -10441,7 +10730,7 @@
         <v>297.8</v>
       </c>
       <c r="E188" s="7">
-        <v>317.6</v>
+        <v>317.60000000000002</v>
       </c>
       <c r="F188" s="7">
         <v>339.5</v>
@@ -10477,7 +10766,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>756</v>
       </c>
@@ -10527,7 +10816,7 @@
         <v>198.2</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>904</v>
       </c>
@@ -10556,10 +10845,10 @@
         <v>16.2</v>
       </c>
       <c r="J190" s="7">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K190" s="7">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L190" s="7">
         <v>22.1</v>
@@ -10577,7 +10866,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>915</v>
       </c>
@@ -10588,7 +10877,7 @@
         <v>10</v>
       </c>
       <c r="D191" s="7">
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E191" s="7">
         <v>83.2</v>
@@ -10606,7 +10895,7 @@
         <v>122.3</v>
       </c>
       <c r="J191" s="7">
-        <v>131.7</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="K191" s="7">
         <v>141.4</v>
@@ -10615,7 +10904,7 @@
         <v>151.5</v>
       </c>
       <c r="M191" s="7">
-        <v>161.2</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="N191" s="7">
         <v>169.9</v>
@@ -10627,7 +10916,7 @@
         <v>184.6</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>660</v>
       </c>
@@ -10650,7 +10939,7 @@
         <v>68</v>
       </c>
       <c r="H192" s="7">
-        <v>71.1</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="I192" s="7">
         <v>73.7</v>
@@ -10677,7 +10966,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>28</v>
       </c>
@@ -10703,7 +10992,7 @@
         <v>152.5</v>
       </c>
       <c r="I193" s="7">
-        <v>162.7</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="J193" s="7">
         <v>166.9</v>
@@ -10727,7 +11016,7 @@
         <v>215.1</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>533</v>
       </c>
@@ -10771,13 +11060,13 @@
         <v>504.7</v>
       </c>
       <c r="O194" s="7">
-        <v>555.7</v>
+        <v>555.70000000000005</v>
       </c>
       <c r="P194" s="7">
-        <v>564.8</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>564.79999999999995</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>44</v>
       </c>
@@ -10800,10 +11089,10 @@
         <v>14</v>
       </c>
       <c r="H195" s="7">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="I195" s="7">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J195" s="7">
         <v>21</v>
@@ -10827,7 +11116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>52</v>
       </c>
@@ -10853,31 +11142,31 @@
         <v>555.5</v>
       </c>
       <c r="I196" s="7">
-        <v>572.2</v>
+        <v>572.20000000000005</v>
       </c>
       <c r="J196" s="7">
         <v>586.5</v>
       </c>
       <c r="K196" s="7">
-        <v>595.2</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="L196" s="7">
         <v>605.5</v>
       </c>
       <c r="M196" s="7">
-        <v>616.2</v>
+        <v>616.20000000000005</v>
       </c>
       <c r="N196" s="7">
         <v>627.6</v>
       </c>
       <c r="O196" s="7">
-        <v>637.2</v>
+        <v>637.20000000000005</v>
       </c>
       <c r="P196" s="7">
-        <v>650.2</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>650.20000000000005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>92</v>
       </c>
@@ -10900,7 +11189,7 @@
         <v>58.8</v>
       </c>
       <c r="H197" s="7">
-        <v>65.4</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="I197" s="7">
         <v>69.8</v>
@@ -10927,7 +11216,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>535</v>
       </c>
@@ -10956,13 +11245,13 @@
         <v>33.6</v>
       </c>
       <c r="J198" s="7">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="K198" s="7">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="L198" s="7">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="M198" s="7">
         <v>46.1</v>
@@ -10977,7 +11266,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>136</v>
       </c>
@@ -10994,7 +11283,7 @@
         <v>27.8</v>
       </c>
       <c r="F199" s="7">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="G199" s="7">
         <v>34.9</v>
@@ -11027,7 +11316,7 @@
         <v>231.3</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>192</v>
       </c>
@@ -11044,13 +11333,13 @@
         <v>61.4</v>
       </c>
       <c r="F200" s="7">
-        <v>67.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="G200" s="7">
         <v>74.7</v>
       </c>
       <c r="H200" s="7">
-        <v>81.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="I200" s="7">
         <v>88.7</v>
@@ -11077,7 +11366,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>531</v>
       </c>
@@ -11094,7 +11383,7 @@
         <v>263.3</v>
       </c>
       <c r="F201" s="7">
-        <v>285.9</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="G201" s="7">
         <v>301.5</v>
@@ -11115,19 +11404,19 @@
         <v>330.3</v>
       </c>
       <c r="M201" s="7">
-        <v>324.1</v>
+        <v>324.10000000000002</v>
       </c>
       <c r="N201" s="7">
         <v>297.5</v>
       </c>
       <c r="O201" s="7">
-        <v>291.4</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="P201" s="7">
         <v>332.5</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>212</v>
       </c>
@@ -11138,7 +11427,7 @@
         <v>10</v>
       </c>
       <c r="D202" s="7">
-        <v>68.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="E202" s="7">
         <v>72.7</v>
@@ -11177,7 +11466,7 @@
         <v>95.3</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>214</v>
       </c>
@@ -11209,13 +11498,13 @@
         <v>120.2</v>
       </c>
       <c r="K203" s="7">
-        <v>134.3</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="L203" s="7">
-        <v>148.7</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="M203" s="7">
-        <v>163.3</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="N203" s="7">
         <v>177.2</v>
@@ -11227,7 +11516,7 @@
         <v>204.8</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>308</v>
       </c>
@@ -11253,7 +11542,7 @@
         <v>277.7</v>
       </c>
       <c r="I204" s="7">
-        <v>271.9</v>
+        <v>271.89999999999998</v>
       </c>
       <c r="J204" s="7">
         <v>261.8</v>
@@ -11265,19 +11554,19 @@
         <v>283.2</v>
       </c>
       <c r="M204" s="7">
-        <v>294.9</v>
+        <v>294.89999999999998</v>
       </c>
       <c r="N204" s="7">
-        <v>298.9</v>
+        <v>298.89999999999998</v>
       </c>
       <c r="O204" s="7">
         <v>302.8</v>
       </c>
       <c r="P204" s="7">
-        <v>307.9</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>307.89999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>312</v>
       </c>
@@ -11291,10 +11580,10 @@
         <v>124.3</v>
       </c>
       <c r="E205" s="7">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="F205" s="7">
-        <v>162.8</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="G205" s="7">
         <v>177.6</v>
@@ -11321,13 +11610,13 @@
         <v>251.3</v>
       </c>
       <c r="O205" s="7">
-        <v>260.1</v>
+        <v>260.10000000000002</v>
       </c>
       <c r="P205" s="7">
         <v>266.7</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>332</v>
       </c>
@@ -11344,7 +11633,7 @@
         <v>127.5</v>
       </c>
       <c r="F206" s="7">
-        <v>140.3</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="G206" s="7">
         <v>155</v>
@@ -11362,7 +11651,7 @@
         <v>231.6</v>
       </c>
       <c r="L206" s="7">
-        <v>257.6</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="M206" s="7">
         <v>283.7</v>
@@ -11377,7 +11666,7 @@
         <v>362.8</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>388</v>
       </c>
@@ -11391,13 +11680,13 @@
         <v>129.5</v>
       </c>
       <c r="E207" s="7">
-        <v>142.3</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="F207" s="7">
-        <v>150.3</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="G207" s="7">
-        <v>162.2</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="H207" s="7">
         <v>173.2</v>
@@ -11424,10 +11713,10 @@
         <v>253.4</v>
       </c>
       <c r="P207" s="7">
-        <v>260.1</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>260.10000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>474</v>
       </c>
@@ -11450,7 +11739,7 @@
         <v>293.5</v>
       </c>
       <c r="H208" s="7">
-        <v>306.6</v>
+        <v>306.60000000000002</v>
       </c>
       <c r="I208" s="7">
         <v>309.3</v>
@@ -11459,7 +11748,7 @@
         <v>307</v>
       </c>
       <c r="K208" s="7">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="L208" s="7">
         <v>338.2</v>
@@ -11477,7 +11766,7 @@
         <v>372.6</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>500</v>
       </c>
@@ -11488,7 +11777,7 @@
         <v>10</v>
       </c>
       <c r="D209" s="7">
-        <v>135.2</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="E209" s="7">
         <v>143</v>
@@ -11527,7 +11816,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>630</v>
       </c>
@@ -11544,10 +11833,10 @@
         <v>253.4</v>
       </c>
       <c r="F210" s="7">
-        <v>265.6</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="G210" s="7">
-        <v>290.6</v>
+        <v>290.60000000000002</v>
       </c>
       <c r="H210" s="7">
         <v>305.5</v>
@@ -11577,7 +11866,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>659</v>
       </c>
@@ -11627,7 +11916,7 @@
         <v>197.9</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>662</v>
       </c>
@@ -11638,7 +11927,7 @@
         <v>10</v>
       </c>
       <c r="D212" s="7">
-        <v>135.7</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="E212" s="7">
         <v>142.1</v>
@@ -11671,13 +11960,13 @@
         <v>257.3</v>
       </c>
       <c r="O212" s="7">
-        <v>268.4</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="P212" s="7">
-        <v>282.9</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>282.89999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>670</v>
       </c>
@@ -11709,7 +11998,7 @@
         <v>257.7</v>
       </c>
       <c r="K213" s="7">
-        <v>267.9</v>
+        <v>267.89999999999998</v>
       </c>
       <c r="L213" s="7">
         <v>275.7</v>
@@ -11727,7 +12016,7 @@
         <v>280.3</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>534</v>
       </c>
@@ -11747,13 +12036,13 @@
         <v>83.3</v>
       </c>
       <c r="G214" s="7">
-        <v>131.2</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="H214" s="7">
         <v>201.9</v>
       </c>
       <c r="I214" s="7">
-        <v>281.1</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="J214" s="7">
         <v>385.2</v>
@@ -11777,7 +12066,7 @@
         <v>974.2</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>780</v>
       </c>
@@ -11791,7 +12080,7 @@
         <v>125.9</v>
       </c>
       <c r="E215" s="7">
-        <v>144.3</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="F215" s="7">
         <v>165.4</v>
@@ -11824,10 +12113,10 @@
         <v>252.8</v>
       </c>
       <c r="P215" s="7">
-        <v>258.9</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>258.89999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>796</v>
       </c>
@@ -11865,10 +12154,10 @@
         <v>12.2</v>
       </c>
       <c r="M216" s="7">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="N216" s="7">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="O216" s="7">
         <v>27.8</v>
@@ -11877,7 +12166,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>850</v>
       </c>
@@ -11888,7 +12177,7 @@
         <v>10</v>
       </c>
       <c r="D217" s="7">
-        <v>76.6</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E217" s="7">
         <v>84.8</v>
@@ -11906,19 +12195,19 @@
         <v>247.1</v>
       </c>
       <c r="J217" s="7">
-        <v>283.1</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="K217" s="7">
         <v>300.8</v>
       </c>
       <c r="L217" s="7">
-        <v>296.4</v>
+        <v>296.39999999999998</v>
       </c>
       <c r="M217" s="7">
         <v>306.8</v>
       </c>
       <c r="N217" s="7">
-        <v>310.6</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="O217" s="7">
         <v>308</v>
@@ -11927,7 +12216,7 @@
         <v>303.3</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>916</v>
       </c>
@@ -11953,10 +12242,10 @@
         <v>28.5</v>
       </c>
       <c r="I218" s="7">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="J218" s="7">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="K218" s="7">
         <v>42.3</v>
@@ -11977,7 +12266,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>84</v>
       </c>
@@ -12012,7 +12301,7 @@
         <v>7.2</v>
       </c>
       <c r="L219" s="7">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M219" s="7">
         <v>9.1</v>
@@ -12027,7 +12316,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>188</v>
       </c>
@@ -12050,7 +12339,7 @@
         <v>31.1</v>
       </c>
       <c r="H220" s="7">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I220" s="7">
         <v>41.1</v>
@@ -12068,7 +12357,7 @@
         <v>68.8</v>
       </c>
       <c r="N220" s="7">
-        <v>76.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="O220" s="7">
         <v>83.2</v>
@@ -12077,7 +12366,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>222</v>
       </c>
@@ -12094,10 +12383,10 @@
         <v>117.2</v>
       </c>
       <c r="F221" s="7">
-        <v>133.3</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="G221" s="7">
-        <v>154.3</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="H221" s="7">
         <v>177.1</v>
@@ -12127,7 +12416,7 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>320</v>
       </c>
@@ -12141,10 +12430,10 @@
         <v>29.1</v>
       </c>
       <c r="E222" s="7">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F222" s="7">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G222" s="7">
         <v>45.4</v>
@@ -12159,7 +12448,7 @@
         <v>68</v>
       </c>
       <c r="K222" s="7">
-        <v>76.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="L222" s="7">
         <v>86.4</v>
@@ -12177,7 +12466,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>340</v>
       </c>
@@ -12209,7 +12498,7 @@
         <v>32.9</v>
       </c>
       <c r="K223" s="7">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="L223" s="7">
         <v>44.3</v>
@@ -12221,13 +12510,13 @@
         <v>58.3</v>
       </c>
       <c r="O223" s="7">
-        <v>65.9</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="P223" s="7">
         <v>73.2</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
         <v>484</v>
       </c>
@@ -12244,7 +12533,7 @@
         <v>16.8</v>
       </c>
       <c r="F224" s="7">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G224" s="7">
         <v>23</v>
@@ -12256,10 +12545,10 @@
         <v>31.3</v>
       </c>
       <c r="J224" s="7">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="K224" s="7">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="L224" s="7">
         <v>43.9</v>
@@ -12277,7 +12566,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
         <v>558</v>
       </c>
@@ -12297,10 +12586,10 @@
         <v>14.7</v>
       </c>
       <c r="G225" s="7">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H225" s="7">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="I225" s="7">
         <v>23.2</v>
@@ -12315,7 +12604,7 @@
         <v>34.4</v>
       </c>
       <c r="M225" s="7">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="N225" s="7">
         <v>41.8</v>
@@ -12327,7 +12616,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
         <v>591</v>
       </c>
@@ -12350,7 +12639,7 @@
         <v>17.7</v>
       </c>
       <c r="H226" s="7">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I226" s="7">
         <v>23.5</v>
@@ -12362,13 +12651,13 @@
         <v>29.9</v>
       </c>
       <c r="L226" s="7">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="M226" s="7">
         <v>36.9</v>
       </c>
       <c r="N226" s="7">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="O226" s="7">
         <v>44.8</v>
@@ -12377,7 +12666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
         <v>931</v>
       </c>
@@ -12397,7 +12686,7 @@
         <v>8.5</v>
       </c>
       <c r="G227" s="7">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H227" s="7">
         <v>11</v>
@@ -12427,7 +12716,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
         <v>32</v>
       </c>
@@ -12450,7 +12739,7 @@
         <v>8.1</v>
       </c>
       <c r="H228" s="7">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I228" s="7">
         <v>9.5</v>
@@ -12477,7 +12766,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>68</v>
       </c>
@@ -12503,7 +12792,7 @@
         <v>4.2</v>
       </c>
       <c r="I229" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J229" s="7">
         <v>5.2</v>
@@ -12524,10 +12813,10 @@
         <v>8.4</v>
       </c>
       <c r="P229" s="7">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>76</v>
       </c>
@@ -12562,10 +12851,10 @@
         <v>16.2</v>
       </c>
       <c r="L230" s="7">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M230" s="7">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="N230" s="7">
         <v>21</v>
@@ -12577,7 +12866,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>152</v>
       </c>
@@ -12588,10 +12877,10 @@
         <v>10</v>
       </c>
       <c r="D231" s="7">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E231" s="7">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F231" s="7">
         <v>10.4</v>
@@ -12609,7 +12898,7 @@
         <v>15.2</v>
       </c>
       <c r="K231" s="7">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="L231" s="7">
         <v>17.8</v>
@@ -12627,7 +12916,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>170</v>
       </c>
@@ -12650,7 +12939,7 @@
         <v>17.3</v>
       </c>
       <c r="H232" s="7">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="I232" s="7">
         <v>22.3</v>
@@ -12665,7 +12954,7 @@
         <v>30.9</v>
       </c>
       <c r="M232" s="7">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="N232" s="7">
         <v>36.4</v>
@@ -12677,7 +12966,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>218</v>
       </c>
@@ -12727,7 +13016,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>238</v>
       </c>
@@ -12777,7 +13066,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>254</v>
       </c>
@@ -12809,7 +13098,7 @@
         <v>0.8</v>
       </c>
       <c r="K235" s="7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L235" s="7">
         <v>1.4</v>
@@ -12827,7 +13116,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>328</v>
       </c>
@@ -12877,7 +13166,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>600</v>
       </c>
@@ -12909,7 +13198,7 @@
         <v>8</v>
       </c>
       <c r="K237" s="7">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L237" s="7">
         <v>10.6</v>
@@ -12927,7 +13216,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>604</v>
       </c>
@@ -12962,7 +13251,7 @@
         <v>15.3</v>
       </c>
       <c r="L238" s="7">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M238" s="7">
         <v>18.8</v>
@@ -12977,7 +13266,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>740</v>
       </c>
@@ -13003,10 +13292,10 @@
         <v>2.4</v>
       </c>
       <c r="I239" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J239" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K239" s="7">
         <v>2.4</v>
@@ -13027,7 +13316,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>858</v>
       </c>
@@ -13050,7 +13339,7 @@
         <v>15.4</v>
       </c>
       <c r="H240" s="7">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I240" s="7">
         <v>16.2</v>
@@ -13065,7 +13354,7 @@
         <v>17.8</v>
       </c>
       <c r="M240" s="7">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N240" s="7">
         <v>19</v>
@@ -13077,7 +13366,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>862</v>
       </c>
@@ -13094,7 +13383,7 @@
         <v>7.7</v>
       </c>
       <c r="F241" s="7">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G241" s="7">
         <v>11.1</v>
@@ -13106,7 +13395,7 @@
         <v>15.1</v>
       </c>
       <c r="J241" s="7">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K241" s="7">
         <v>19.8</v>
@@ -13127,7 +13416,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>905</v>
       </c>
@@ -13138,7 +13427,7 @@
         <v>10</v>
       </c>
       <c r="D242" s="7">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E242" s="7">
         <v>10.1</v>
@@ -13171,13 +13460,13 @@
         <v>16.8</v>
       </c>
       <c r="O242" s="7">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="P242" s="7">
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>60</v>
       </c>
@@ -13209,25 +13498,25 @@
         <v>1139.8</v>
       </c>
       <c r="K243" s="7">
-        <v>1178.4</v>
+        <v>1178.4000000000001</v>
       </c>
       <c r="L243" s="7">
-        <v>1218.6</v>
+        <v>1218.5999999999999</v>
       </c>
       <c r="M243" s="7">
-        <v>1253.9</v>
+        <v>1253.9000000000001</v>
       </c>
       <c r="N243" s="7">
-        <v>1280.6</v>
+        <v>1280.5999999999999</v>
       </c>
       <c r="O243" s="7">
-        <v>1302.6</v>
+        <v>1302.5999999999999</v>
       </c>
       <c r="P243" s="7">
-        <v>1279.1</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>1279.0999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>124</v>
       </c>
@@ -13247,7 +13536,7 @@
         <v>2</v>
       </c>
       <c r="G244" s="7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H244" s="7">
         <v>2.4</v>
@@ -13277,7 +13566,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>304</v>
       </c>
@@ -13327,7 +13616,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>666</v>
       </c>
@@ -13338,7 +13627,7 @@
         <v>10</v>
       </c>
       <c r="D246" s="7">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E246" s="7">
         <v>20.5</v>
@@ -13377,7 +13666,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>840</v>
       </c>
@@ -13388,13 +13677,13 @@
         <v>10</v>
       </c>
       <c r="D247" s="7">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E247" s="7">
         <v>18.8</v>
       </c>
       <c r="F247" s="7">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G247" s="7">
         <v>21.8</v>
@@ -13421,13 +13710,13 @@
         <v>30.8</v>
       </c>
       <c r="O247" s="7">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="P247" s="7">
-        <v>33.7</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>909</v>
       </c>
@@ -13450,7 +13739,7 @@
         <v>2.1</v>
       </c>
       <c r="H248" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I248" s="7">
         <v>2.5</v>
@@ -13477,7 +13766,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>927</v>
       </c>
@@ -13506,7 +13795,7 @@
         <v>2.1</v>
       </c>
       <c r="J249" s="7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K249" s="7">
         <v>2.4</v>
@@ -13527,7 +13816,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>36</v>
       </c>
@@ -13538,7 +13827,7 @@
         <v>24</v>
       </c>
       <c r="D250" s="7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E250" s="7">
         <v>1.2</v>
@@ -13562,7 +13851,7 @@
         <v>2</v>
       </c>
       <c r="L250" s="7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M250" s="7">
         <v>2.4</v>
@@ -13577,7 +13866,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
         <v>554</v>
       </c>
@@ -13624,10 +13913,10 @@
         <v>15.7</v>
       </c>
       <c r="P251" s="7">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="252">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>928</v>
       </c>
@@ -13638,7 +13927,7 @@
         <v>10</v>
       </c>
       <c r="D252" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E252" s="7">
         <v>4.5</v>
@@ -13677,7 +13966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>242</v>
       </c>
@@ -13706,7 +13995,7 @@
         <v>31.6</v>
       </c>
       <c r="J253" s="7">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="K253" s="7">
         <v>39</v>
@@ -13727,7 +14016,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>540</v>
       </c>
@@ -13762,7 +14051,7 @@
         <v>8.5</v>
       </c>
       <c r="L254" s="7">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M254" s="7">
         <v>10.4</v>
@@ -13777,7 +14066,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>598</v>
       </c>
@@ -13794,10 +14083,10 @@
         <v>4</v>
       </c>
       <c r="F255" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G255" s="7">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H255" s="7">
         <v>5.6</v>
@@ -13827,7 +14116,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>90</v>
       </c>
@@ -13847,7 +14136,7 @@
         <v>4.2</v>
       </c>
       <c r="G256" s="7">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H256" s="7">
         <v>5.7</v>
@@ -13856,10 +14145,10 @@
         <v>6.9</v>
       </c>
       <c r="J256" s="7">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K256" s="7">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L256" s="7">
         <v>11.1</v>
@@ -13874,10 +14163,10 @@
         <v>16.8</v>
       </c>
       <c r="P256" s="7">
-        <v>18.9</v>
-      </c>
-    </row>
-    <row r="257">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>548</v>
       </c>
@@ -13903,7 +14192,7 @@
         <v>7</v>
       </c>
       <c r="I257" s="7">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J257" s="7">
         <v>9.5</v>
@@ -13924,10 +14213,10 @@
         <v>17.2</v>
       </c>
       <c r="P257" s="7">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>954</v>
       </c>
@@ -13947,7 +14236,7 @@
         <v>60.3</v>
       </c>
       <c r="G258" s="7">
-        <v>68.9</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="H258" s="7">
         <v>78.2</v>
@@ -13965,7 +14254,7 @@
         <v>130.4</v>
       </c>
       <c r="M258" s="7">
-        <v>146.8</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="N258" s="7">
         <v>157</v>
@@ -13974,10 +14263,10 @@
         <v>158.6</v>
       </c>
       <c r="P258" s="7">
-        <v>158.7</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>158.69999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>316</v>
       </c>
@@ -14000,7 +14289,7 @@
         <v>138.6</v>
       </c>
       <c r="H259" s="7">
-        <v>155.3</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="I259" s="7">
         <v>172.9</v>
@@ -14015,10 +14304,10 @@
         <v>241.6</v>
       </c>
       <c r="M259" s="7">
-        <v>269.6</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="N259" s="7">
-        <v>287.6</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="O259" s="7">
         <v>293.3</v>
@@ -14027,7 +14316,7 @@
         <v>295.3</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>296</v>
       </c>
@@ -14038,7 +14327,7 @@
         <v>10</v>
       </c>
       <c r="D260" s="7">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E260" s="7">
         <v>45.2</v>
@@ -14053,7 +14342,7 @@
         <v>63.2</v>
       </c>
       <c r="I260" s="7">
-        <v>68.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="J260" s="7">
         <v>73.3</v>
@@ -14077,7 +14366,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>584</v>
       </c>
@@ -14115,7 +14404,7 @@
         <v>262.8</v>
       </c>
       <c r="M261" s="7">
-        <v>283.4</v>
+        <v>283.39999999999998</v>
       </c>
       <c r="N261" s="7">
         <v>289.8</v>
@@ -14127,7 +14416,7 @@
         <v>291.2</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>583</v>
       </c>
@@ -14147,7 +14436,7 @@
         <v>63.6</v>
       </c>
       <c r="G262" s="7">
-        <v>74.6</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="H262" s="7">
         <v>87.8</v>
@@ -14165,19 +14454,19 @@
         <v>137.6</v>
       </c>
       <c r="M262" s="7">
-        <v>153.7</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="N262" s="7">
         <v>153.5</v>
       </c>
       <c r="O262" s="7">
-        <v>151.7</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="P262" s="7">
         <v>148</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>520</v>
       </c>
@@ -14188,7 +14477,7 @@
         <v>10</v>
       </c>
       <c r="D263" s="7">
-        <v>147.7</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="E263" s="7">
         <v>181</v>
@@ -14227,7 +14516,7 @@
         <v>501.2</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>580</v>
       </c>
@@ -14241,7 +14530,7 @@
         <v>15.2</v>
       </c>
       <c r="E264" s="7">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F264" s="7">
         <v>21.8</v>
@@ -14256,7 +14545,7 @@
         <v>32.9</v>
       </c>
       <c r="J264" s="7">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="K264" s="7">
         <v>63.2</v>
@@ -14268,7 +14557,7 @@
         <v>122.3</v>
       </c>
       <c r="N264" s="7">
-        <v>150.2</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="O264" s="7">
         <v>138.6</v>
@@ -14277,7 +14566,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>585</v>
       </c>
@@ -14291,7 +14580,7 @@
         <v>16.2</v>
       </c>
       <c r="E265" s="7">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F265" s="7">
         <v>21</v>
@@ -14312,7 +14601,7 @@
         <v>29.8</v>
       </c>
       <c r="L265" s="7">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M265" s="7">
         <v>37.5</v>
@@ -14327,7 +14616,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>957</v>
       </c>
@@ -14371,13 +14660,13 @@
         <v>75.8</v>
       </c>
       <c r="O266" s="7">
-        <v>79.4</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="P266" s="7">
         <v>81.5</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>16</v>
       </c>
@@ -14403,10 +14692,10 @@
         <v>136.5</v>
       </c>
       <c r="I267" s="7">
-        <v>149.7</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="J267" s="7">
-        <v>162.3</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="K267" s="7">
         <v>196.2</v>
@@ -14418,16 +14707,16 @@
         <v>264.3</v>
       </c>
       <c r="N267" s="7">
-        <v>287.6</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="O267" s="7">
-        <v>295.6</v>
+        <v>295.60000000000002</v>
       </c>
       <c r="P267" s="7">
         <v>278.2</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>184</v>
       </c>
@@ -14444,7 +14733,7 @@
         <v>68.2</v>
       </c>
       <c r="F268" s="7">
-        <v>76.1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="G268" s="7">
         <v>79</v>
@@ -14459,7 +14748,7 @@
         <v>73.5</v>
       </c>
       <c r="K268" s="7">
-        <v>73.9</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="L268" s="7">
         <v>76.5</v>
@@ -14477,7 +14766,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>258</v>
       </c>
@@ -14503,7 +14792,7 @@
         <v>30.2</v>
       </c>
       <c r="I269" s="7">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="J269" s="7">
         <v>41.5</v>
@@ -14521,13 +14810,13 @@
         <v>64.8</v>
       </c>
       <c r="O269" s="7">
-        <v>69.6</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="P269" s="7">
         <v>73.2</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>570</v>
       </c>
@@ -14541,13 +14830,13 @@
         <v>18</v>
       </c>
       <c r="E270" s="7">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F270" s="7">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G270" s="7">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H270" s="7">
         <v>19.8</v>
@@ -14565,7 +14854,7 @@
         <v>9</v>
       </c>
       <c r="M270" s="7">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="N270" s="7">
         <v>7.3</v>
@@ -14577,7 +14866,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>882</v>
       </c>
@@ -14591,7 +14880,7 @@
         <v>29</v>
       </c>
       <c r="E271" s="7">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F271" s="7">
         <v>38.4</v>
@@ -14627,7 +14916,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>772</v>
       </c>
@@ -14641,7 +14930,7 @@
         <v>156.6</v>
       </c>
       <c r="E272" s="7">
-        <v>160.7</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="F272" s="7">
         <v>187.3</v>
@@ -14653,19 +14942,19 @@
         <v>162.1</v>
       </c>
       <c r="I272" s="7">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="J272" s="7">
-        <v>155.3</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="K272" s="7">
         <v>170.9</v>
       </c>
       <c r="L272" s="7">
-        <v>160.8</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="M272" s="7">
-        <v>151.7</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="N272" s="7">
         <v>155.4</v>
@@ -14677,7 +14966,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>776</v>
       </c>
@@ -14688,7 +14977,7 @@
         <v>10</v>
       </c>
       <c r="D273" s="7">
-        <v>65.6</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="E273" s="7">
         <v>76.8</v>
@@ -14706,28 +14995,28 @@
         <v>122.7</v>
       </c>
       <c r="J273" s="7">
-        <v>129.2</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="K273" s="7">
         <v>130.5</v>
       </c>
       <c r="L273" s="7">
-        <v>132.2</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="M273" s="7">
         <v>133.4</v>
       </c>
       <c r="N273" s="7">
-        <v>136.2</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="O273" s="7">
-        <v>140.3</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="P273" s="7">
         <v>144.6</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>798</v>
       </c>
@@ -14756,13 +15045,13 @@
         <v>255.9</v>
       </c>
       <c r="J274" s="7">
-        <v>268.4</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="K274" s="7">
         <v>288.3</v>
       </c>
       <c r="L274" s="7">
-        <v>300.1</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="M274" s="7">
         <v>307.7</v>
@@ -14777,7 +15066,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>876</v>
       </c>
@@ -14797,13 +15086,13 @@
         <v>61.1</v>
       </c>
       <c r="G275" s="7">
-        <v>65.9</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="H275" s="7">
         <v>63.2</v>
       </c>
       <c r="I275" s="7">
-        <v>65.1</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="J275" s="7">
         <v>80.2</v>
@@ -14828,26 +15117,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.8" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>289</v>
       </c>
@@ -14855,7 +15144,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -14863,7 +15152,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -14871,7 +15160,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -14879,7 +15168,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -14887,7 +15176,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -14895,7 +15184,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -14903,7 +15192,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -14911,7 +15200,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -14919,7 +15208,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -14927,7 +15216,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -14935,7 +15224,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -14943,7 +15232,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -14951,7 +15240,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -14959,7 +15248,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>8</v>
       </c>
@@ -14967,7 +15256,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>9</v>
       </c>
@@ -14975,7 +15264,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>10</v>
       </c>
@@ -14983,7 +15272,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>11</v>
       </c>
@@ -14991,7 +15280,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -14999,7 +15288,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -15007,7 +15296,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -15015,7 +15304,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>15</v>
       </c>
@@ -15023,7 +15312,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>16</v>
       </c>
@@ -15031,7 +15320,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>17</v>
       </c>
@@ -15039,7 +15328,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>18</v>
       </c>
@@ -15047,7 +15336,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>19</v>
       </c>
@@ -15055,7 +15344,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>20</v>
       </c>
@@ -15063,7 +15352,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>21</v>
       </c>
@@ -15071,7 +15360,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>22</v>
       </c>
@@ -15079,7 +15368,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>23</v>
       </c>
@@ -15087,7 +15376,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>24</v>
       </c>
@@ -15095,7 +15384,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>25</v>
       </c>
@@ -15104,6 +15393,6 @@
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>